--- a/data/trans_bre/IP19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 9,6</t>
+          <t>-21,74; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 15,22</t>
+          <t>-14,7; 14,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 15,34</t>
+          <t>-26,69; 15,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 12,65</t>
+          <t>-27,23; 13,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 15,26</t>
+          <t>-27,89; 12,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 22,07</t>
+          <t>-17,64; 22,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 25,72</t>
+          <t>-34,77; 24,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 16,21</t>
+          <t>-31,23; 17,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -0,8</t>
+          <t>-15,04; -1,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 3,19</t>
+          <t>-11,21; 2,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 0,47</t>
+          <t>-12,49; 0,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,91</t>
+          <t>-2,33; 10,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,63; -1,29</t>
+          <t>-20,25; -1,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 4,33</t>
+          <t>-14,68; 3,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 0,49</t>
+          <t>-15,22; 0,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 12,8</t>
+          <t>-2,79; 13,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 13,85</t>
+          <t>-8,99; 14,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 3,46</t>
+          <t>-16,49; 5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 18,03</t>
+          <t>-3,0; 18,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -1,46</t>
+          <t>-19,1; -1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 20,35</t>
+          <t>-11,32; 22,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 4,16</t>
+          <t>-18,64; 6,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 28,0</t>
+          <t>-3,95; 28,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -1,69</t>
+          <t>-21,55; -1,88</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 0,66</t>
+          <t>-10,87; -0,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1,69</t>
+          <t>-8,95; 1,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,06</t>
+          <t>-7,77; 2,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,03</t>
+          <t>-5,42; 4,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 0,66</t>
+          <t>-14,96; -0,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 2,22</t>
+          <t>-11,52; 2,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,2</t>
+          <t>-9,86; 3,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,98</t>
+          <t>-6,36; 5,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-10,44%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 8,46</t>
+          <t>-21,56; 10,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 14,41</t>
+          <t>-14,79; 15,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 15,02</t>
+          <t>-27,57; 14,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 13,95</t>
+          <t>-37,65; 10,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 12,74</t>
+          <t>-27,63; 17,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 22,15</t>
+          <t>-17,99; 23,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 24,89</t>
+          <t>-36,81; 23,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 17,56</t>
+          <t>-42,05; 12,14</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,11</t>
+          <t>-14,96; -1,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 2,38</t>
+          <t>-10,69; 2,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 0,52</t>
+          <t>-12,04; 0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 10,14</t>
+          <t>-2,6; 10,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,25; -1,56</t>
+          <t>-20,11; -1,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 3,42</t>
+          <t>-13,9; 3,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 0,61</t>
+          <t>-14,98; 0,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 13,12</t>
+          <t>-3,06; 13,52</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,39</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-11,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 14,42</t>
+          <t>-9,16; 14,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 5,11</t>
+          <t>-16,37; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 18,31</t>
+          <t>-2,43; 18,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -1,5</t>
+          <t>-19,38; -2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 22,17</t>
+          <t>-11,25; 21,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 6,59</t>
+          <t>-18,68; 4,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 28,0</t>
+          <t>-3,02; 29,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -1,88</t>
+          <t>-21,8; -2,52</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -0,2</t>
+          <t>-10,68; 0,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 1,58</t>
+          <t>-8,99; 1,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,83</t>
+          <t>-7,57; 2,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,47</t>
+          <t>-5,42; 4,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -0,31</t>
+          <t>-14,6; 0,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 2,17</t>
+          <t>-11,43; 2,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 3,88</t>
+          <t>-9,64; 3,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,62</t>
+          <t>-6,43; 5,69</t>
         </is>
       </c>
     </row>
